--- a/Wyklad_9/sales_data.xlsx
+++ b/Wyklad_9/sales_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wm2krpfls0001\Media\Research\MBS Tools\Economiser\Przedmiot Ekonometria na uczelni\Mikolaj\2023\Sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insidemedia-my.sharepoint.com/personal/maria_pawluk_essencemediacom_com/Documents/Desktop/WNE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68B477-0BE5-455B-95C4-EAB7812E16FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DE68B477-0BE5-455B-95C4-EAB7812E16FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B0E4D36-BB32-47CD-98CB-818B5F0706EC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,11 +36,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>VA_BEER_SKU1</t>
+  </si>
+  <si>
+    <t>VO_BEER_SKU1</t>
+  </si>
+  <si>
+    <t>VA_BEER_SKU2</t>
+  </si>
+  <si>
+    <t>VO_BEER_SKU2</t>
+  </si>
+  <si>
+    <t>VA_BEER_SKU3</t>
+  </si>
+  <si>
+    <t>VO_BEER_SKU3</t>
+  </si>
+  <si>
+    <t>DW_BEER_SKU1</t>
+  </si>
+  <si>
+    <t>DW_BEER_SKU2</t>
+  </si>
+  <si>
+    <t>DW_BEER_SKU3</t>
+  </si>
+  <si>
+    <t>SHOP_1</t>
+  </si>
+  <si>
+    <t>SHOP_2</t>
+  </si>
+  <si>
+    <t>SHOP_3</t>
+  </si>
+  <si>
+    <t>INFLACJA_WOW</t>
+  </si>
+  <si>
     <t>Y2019W01</t>
   </si>
   <si>
@@ -351,196 +392,160 @@
     <t>Y2020W52</t>
   </si>
   <si>
+    <t>Y2021W01</t>
+  </si>
+  <si>
+    <t>Y2021W02</t>
+  </si>
+  <si>
+    <t>Y2021W03</t>
+  </si>
+  <si>
+    <t>Y2021W04</t>
+  </si>
+  <si>
+    <t>Y2021W05</t>
+  </si>
+  <si>
+    <t>Y2021W06</t>
+  </si>
+  <si>
+    <t>Y2021W07</t>
+  </si>
+  <si>
+    <t>Y2021W08</t>
+  </si>
+  <si>
+    <t>Y2021W09</t>
+  </si>
+  <si>
+    <t>Y2021W10</t>
+  </si>
+  <si>
+    <t>Y2021W11</t>
+  </si>
+  <si>
+    <t>Y2021W12</t>
+  </si>
+  <si>
+    <t>Y2021W13</t>
+  </si>
+  <si>
+    <t>Y2021W14</t>
+  </si>
+  <si>
+    <t>Y2021W15</t>
+  </si>
+  <si>
+    <t>Y2021W16</t>
+  </si>
+  <si>
+    <t>Y2021W17</t>
+  </si>
+  <si>
+    <t>Y2021W18</t>
+  </si>
+  <si>
+    <t>Y2021W19</t>
+  </si>
+  <si>
+    <t>Y2021W20</t>
+  </si>
+  <si>
+    <t>Y2021W21</t>
+  </si>
+  <si>
+    <t>Y2021W22</t>
+  </si>
+  <si>
+    <t>Y2021W23</t>
+  </si>
+  <si>
+    <t>Y2021W24</t>
+  </si>
+  <si>
+    <t>Y2021W25</t>
+  </si>
+  <si>
+    <t>Y2021W26</t>
+  </si>
+  <si>
+    <t>Y2021W27</t>
+  </si>
+  <si>
+    <t>Y2021W28</t>
+  </si>
+  <si>
+    <t>Y2021W29</t>
+  </si>
+  <si>
+    <t>Y2021W30</t>
+  </si>
+  <si>
+    <t>Y2021W31</t>
+  </si>
+  <si>
+    <t>Y2021W32</t>
+  </si>
+  <si>
+    <t>Y2021W33</t>
+  </si>
+  <si>
+    <t>Y2021W34</t>
+  </si>
+  <si>
+    <t>Y2021W35</t>
+  </si>
+  <si>
+    <t>Y2021W36</t>
+  </si>
+  <si>
+    <t>Y2021W37</t>
+  </si>
+  <si>
+    <t>Y2021W38</t>
+  </si>
+  <si>
+    <t>Y2021W39</t>
+  </si>
+  <si>
+    <t>Y2021W40</t>
+  </si>
+  <si>
+    <t>Y2021W41</t>
+  </si>
+  <si>
+    <t>Y2021W42</t>
+  </si>
+  <si>
+    <t>Y2021W43</t>
+  </si>
+  <si>
+    <t>Y2021W44</t>
+  </si>
+  <si>
+    <t>Y2021W45</t>
+  </si>
+  <si>
+    <t>Y2021W46</t>
+  </si>
+  <si>
+    <t>Y2021W47</t>
+  </si>
+  <si>
+    <t>Y2021W48</t>
+  </si>
+  <si>
+    <t>Y2021W49</t>
+  </si>
+  <si>
+    <t>Y2021W50</t>
+  </si>
+  <si>
+    <t>Y2021W51</t>
+  </si>
+  <si>
     <t>Y2021W52</t>
-  </si>
-  <si>
-    <t>Y2021W01</t>
-  </si>
-  <si>
-    <t>Y2021W02</t>
-  </si>
-  <si>
-    <t>Y2021W03</t>
-  </si>
-  <si>
-    <t>Y2021W04</t>
-  </si>
-  <si>
-    <t>Y2021W05</t>
-  </si>
-  <si>
-    <t>Y2021W06</t>
-  </si>
-  <si>
-    <t>Y2021W07</t>
-  </si>
-  <si>
-    <t>Y2021W08</t>
-  </si>
-  <si>
-    <t>Y2021W09</t>
-  </si>
-  <si>
-    <t>Y2021W10</t>
-  </si>
-  <si>
-    <t>Y2021W11</t>
-  </si>
-  <si>
-    <t>Y2021W12</t>
-  </si>
-  <si>
-    <t>Y2021W13</t>
-  </si>
-  <si>
-    <t>Y2021W14</t>
-  </si>
-  <si>
-    <t>Y2021W15</t>
-  </si>
-  <si>
-    <t>Y2021W16</t>
-  </si>
-  <si>
-    <t>Y2021W17</t>
-  </si>
-  <si>
-    <t>Y2021W18</t>
-  </si>
-  <si>
-    <t>Y2021W19</t>
-  </si>
-  <si>
-    <t>Y2021W20</t>
-  </si>
-  <si>
-    <t>Y2021W21</t>
-  </si>
-  <si>
-    <t>Y2021W22</t>
-  </si>
-  <si>
-    <t>Y2021W23</t>
-  </si>
-  <si>
-    <t>Y2021W24</t>
-  </si>
-  <si>
-    <t>Y2021W25</t>
-  </si>
-  <si>
-    <t>Y2021W26</t>
-  </si>
-  <si>
-    <t>Y2021W27</t>
-  </si>
-  <si>
-    <t>Y2021W28</t>
-  </si>
-  <si>
-    <t>Y2021W29</t>
-  </si>
-  <si>
-    <t>Y2021W30</t>
-  </si>
-  <si>
-    <t>Y2021W31</t>
-  </si>
-  <si>
-    <t>Y2021W32</t>
-  </si>
-  <si>
-    <t>Y2021W33</t>
-  </si>
-  <si>
-    <t>Y2021W34</t>
-  </si>
-  <si>
-    <t>Y2021W35</t>
-  </si>
-  <si>
-    <t>Y2021W36</t>
-  </si>
-  <si>
-    <t>Y2021W37</t>
-  </si>
-  <si>
-    <t>Y2021W38</t>
-  </si>
-  <si>
-    <t>Y2021W39</t>
-  </si>
-  <si>
-    <t>Y2021W40</t>
-  </si>
-  <si>
-    <t>Y2021W41</t>
-  </si>
-  <si>
-    <t>Y2021W42</t>
-  </si>
-  <si>
-    <t>Y2021W43</t>
-  </si>
-  <si>
-    <t>Y2021W44</t>
-  </si>
-  <si>
-    <t>Y2021W45</t>
-  </si>
-  <si>
-    <t>Y2021W46</t>
-  </si>
-  <si>
-    <t>Y2021W47</t>
-  </si>
-  <si>
-    <t>Y2021W48</t>
-  </si>
-  <si>
-    <t>Y2021W49</t>
-  </si>
-  <si>
-    <t>Y2021W50</t>
-  </si>
-  <si>
-    <t>Y2021W51</t>
-  </si>
-  <si>
-    <t>VA_BEER_SKU1</t>
-  </si>
-  <si>
-    <t>VO_BEER_SKU1</t>
-  </si>
-  <si>
-    <t>VA_BEER_SKU2</t>
-  </si>
-  <si>
-    <t>VO_BEER_SKU2</t>
-  </si>
-  <si>
-    <t>VA_BEER_SKU3</t>
-  </si>
-  <si>
-    <t>VO_BEER_SKU3</t>
-  </si>
-  <si>
-    <t>DW_BEER_SKU1</t>
-  </si>
-  <si>
-    <t>DW_BEER_SKU2</t>
-  </si>
-  <si>
-    <t>DW_BEER_SKU3</t>
-  </si>
-  <si>
-    <t>SHOP_1</t>
-  </si>
-  <si>
-    <t>SHOP_2</t>
-  </si>
-  <si>
-    <t>SHOP_3</t>
   </si>
 </sst>
 </file>
@@ -4889,105 +4894,105 @@
   </cellXfs>
   <cellStyles count="3848">
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="110" xr:uid="{55071899-B1F9-4122-9D90-1DB547FDA54E}"/>
-    <cellStyle name="20% — akcent 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — akcent 1 2" xfId="3770" xr:uid="{0CF65505-53BA-4011-9332-9A909F5440B4}"/>
     <cellStyle name="20% — akcent 1 3" xfId="3790" xr:uid="{E25C6F62-E5F8-4551-BBA2-7C95F8CDFEE2}"/>
     <cellStyle name="20% — akcent 1 4" xfId="3810" xr:uid="{2402B442-CF1C-424D-8EB0-90B34D3C2348}"/>
     <cellStyle name="20% — akcent 1 5" xfId="3830" xr:uid="{EBE1A9FD-B7CC-46F4-8ECA-A2D3DF206640}"/>
-    <cellStyle name="20% — akcent 2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — akcent 2 2" xfId="3773" xr:uid="{D58C7D38-FC02-4C5E-8CE1-7CFBC2F6B593}"/>
     <cellStyle name="20% — akcent 2 3" xfId="3793" xr:uid="{D88BF7CF-6379-46DD-B484-74B654880B33}"/>
     <cellStyle name="20% — akcent 2 4" xfId="3813" xr:uid="{08217F11-E416-460B-A388-CAC80DF882C7}"/>
     <cellStyle name="20% — akcent 2 5" xfId="3833" xr:uid="{20468573-ADEF-48DC-84D7-68D252742534}"/>
-    <cellStyle name="20% — akcent 3" xfId="26" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — akcent 3 2" xfId="3776" xr:uid="{33938330-7CCF-4BAC-98FA-46338F471C2E}"/>
     <cellStyle name="20% — akcent 3 3" xfId="3796" xr:uid="{D698C84D-A702-44A5-BD95-9A0C9D4D6F82}"/>
     <cellStyle name="20% — akcent 3 4" xfId="3816" xr:uid="{A85D51FB-092D-416B-BF5F-A5B022EECEE7}"/>
     <cellStyle name="20% — akcent 3 5" xfId="3836" xr:uid="{55B609E9-0875-42F8-807D-34139AED29AB}"/>
-    <cellStyle name="20% — akcent 4" xfId="30" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — akcent 4 2" xfId="3779" xr:uid="{0EAEDB5E-940B-4571-B42F-85E39CD75C79}"/>
     <cellStyle name="20% — akcent 4 3" xfId="3799" xr:uid="{CDD0F1A9-D047-48BF-B687-1207E18F1113}"/>
     <cellStyle name="20% — akcent 4 4" xfId="3819" xr:uid="{5B6449E0-EE93-45CA-9A07-9CF462B99781}"/>
     <cellStyle name="20% — akcent 4 5" xfId="3839" xr:uid="{9F2A984E-3087-4384-9F41-5F1710E800FA}"/>
-    <cellStyle name="20% — akcent 5" xfId="34" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — akcent 5 2" xfId="3782" xr:uid="{53C8DA07-27AC-4365-8F3B-7B8089430233}"/>
     <cellStyle name="20% — akcent 5 3" xfId="3802" xr:uid="{FE31E54A-5597-4C66-9C71-70FEE7F6F85B}"/>
     <cellStyle name="20% — akcent 5 4" xfId="3822" xr:uid="{A13F0066-2C0E-4896-BDC1-7EFFF4094998}"/>
     <cellStyle name="20% — akcent 5 5" xfId="3842" xr:uid="{733CC900-2A50-4CEF-A0E4-98C3A2AF5AF4}"/>
-    <cellStyle name="20% — akcent 6" xfId="38" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — akcent 6 2" xfId="3785" xr:uid="{A8720DD3-5E2B-4654-BC45-B1CDC195ABCB}"/>
     <cellStyle name="20% — akcent 6 3" xfId="3805" xr:uid="{D28443B5-DA7C-437D-9736-4E764513A4CB}"/>
     <cellStyle name="20% — akcent 6 4" xfId="3825" xr:uid="{B9753F48-F5FE-4099-B3CF-EDCE00FE64AE}"/>
     <cellStyle name="20% — akcent 6 5" xfId="3845" xr:uid="{02F3981F-371A-4006-A9BC-61C3F0A29F02}"/>
-    <cellStyle name="40% — akcent 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — akcent 1 2" xfId="3771" xr:uid="{5535CACD-2B1A-40B8-B387-044DD25110D1}"/>
     <cellStyle name="40% — akcent 1 3" xfId="3791" xr:uid="{19ED3247-FC9C-48E1-99CF-939F295C9ACD}"/>
     <cellStyle name="40% — akcent 1 4" xfId="3811" xr:uid="{BAE9FDF2-5BCA-47AE-AE69-119CDDCEB38A}"/>
     <cellStyle name="40% — akcent 1 5" xfId="3831" xr:uid="{2C2FDE24-C738-4704-9375-C9C4B7EFB90A}"/>
-    <cellStyle name="40% — akcent 2" xfId="23" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — akcent 2 2" xfId="3774" xr:uid="{8591C924-88A5-4A7A-B46A-2F0C91B9DA2B}"/>
     <cellStyle name="40% — akcent 2 3" xfId="3794" xr:uid="{D5BF54C0-FD38-4358-8EF6-D5C0145F0003}"/>
     <cellStyle name="40% — akcent 2 4" xfId="3814" xr:uid="{088C6F41-75C5-44C8-BC5B-25FCA16A0B36}"/>
     <cellStyle name="40% — akcent 2 5" xfId="3834" xr:uid="{8580A0B7-120F-4967-8BF7-86944643A003}"/>
-    <cellStyle name="40% — akcent 3" xfId="27" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — akcent 3 2" xfId="3777" xr:uid="{8B325C76-2E80-4C0A-AAC7-3692F28ECC3F}"/>
     <cellStyle name="40% — akcent 3 3" xfId="3797" xr:uid="{FACC8207-0B07-435A-B1EF-A826DF5D1BCA}"/>
     <cellStyle name="40% — akcent 3 4" xfId="3817" xr:uid="{534B80FC-96D7-4DA0-9531-81A1DE1095AA}"/>
     <cellStyle name="40% — akcent 3 5" xfId="3837" xr:uid="{AEA76E56-C8DE-4DC0-803D-19A4AC8650E6}"/>
-    <cellStyle name="40% — akcent 4" xfId="31" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — akcent 4 2" xfId="3780" xr:uid="{7A7714CB-7386-445B-A822-EA7EF24570C4}"/>
     <cellStyle name="40% — akcent 4 3" xfId="3800" xr:uid="{A84ECC21-4141-44A6-9B66-DC03F70E4A40}"/>
     <cellStyle name="40% — akcent 4 4" xfId="3820" xr:uid="{25D338DC-FCD2-4580-A5E8-981F83AF4683}"/>
     <cellStyle name="40% — akcent 4 5" xfId="3840" xr:uid="{0EB5B475-ADA3-4767-ACF8-C0C6DCC8F455}"/>
-    <cellStyle name="40% — akcent 5" xfId="35" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — akcent 5 2" xfId="3783" xr:uid="{53A46D96-436F-47A5-B9EF-6AC763F14EAB}"/>
     <cellStyle name="40% — akcent 5 3" xfId="3803" xr:uid="{DB9B1409-CB69-4AAB-B7F1-CC4C6BCBD58A}"/>
     <cellStyle name="40% — akcent 5 4" xfId="3823" xr:uid="{37F41347-11CB-4A35-9BB9-B1EF024B4001}"/>
     <cellStyle name="40% — akcent 5 5" xfId="3843" xr:uid="{5FBD92A3-F9C3-47F2-9BAF-F6B393C2D771}"/>
-    <cellStyle name="40% — akcent 6" xfId="39" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — akcent 6 2" xfId="3786" xr:uid="{9C1C4263-E68B-4A6C-94B4-A14BD9DF2AD3}"/>
     <cellStyle name="40% — akcent 6 3" xfId="3806" xr:uid="{A37144A9-EC28-46E7-9083-A1E79E75519F}"/>
     <cellStyle name="40% — akcent 6 4" xfId="3826" xr:uid="{E063D979-7FE3-42B2-AC59-4571C1D093B7}"/>
     <cellStyle name="40% — akcent 6 5" xfId="3846" xr:uid="{267309F1-EA0D-4C37-937F-D11A219972E7}"/>
-    <cellStyle name="60% — akcent 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — akcent 1 2" xfId="3772" xr:uid="{B67F85EC-259B-4A99-B952-478EA539EFC6}"/>
     <cellStyle name="60% — akcent 1 3" xfId="3792" xr:uid="{25EB15EB-A5E0-4340-82B4-1207EF17ACD3}"/>
     <cellStyle name="60% — akcent 1 4" xfId="3812" xr:uid="{8E05CF11-8E1E-438A-88F7-4F25E848031A}"/>
     <cellStyle name="60% — akcent 1 5" xfId="3832" xr:uid="{F915D989-67B9-481F-B021-67FA3D31DEC8}"/>
-    <cellStyle name="60% — akcent 2" xfId="24" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — akcent 2 2" xfId="3775" xr:uid="{91AD286E-71DD-4B14-84A5-B4BD7FA0824D}"/>
     <cellStyle name="60% — akcent 2 3" xfId="3795" xr:uid="{CB00C179-4307-4261-B63A-2C829C914291}"/>
     <cellStyle name="60% — akcent 2 4" xfId="3815" xr:uid="{F2662821-C78A-46C1-AA95-26AE933461D7}"/>
     <cellStyle name="60% — akcent 2 5" xfId="3835" xr:uid="{C1DFF701-D496-43A7-A314-7E117AF8ED8F}"/>
-    <cellStyle name="60% — akcent 3" xfId="28" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — akcent 3 2" xfId="3778" xr:uid="{491C03B7-4F79-446B-A95B-834E31DC8E03}"/>
     <cellStyle name="60% — akcent 3 3" xfId="3798" xr:uid="{1104E7E3-78B6-48AA-BB09-29C6E4759986}"/>
     <cellStyle name="60% — akcent 3 4" xfId="3818" xr:uid="{4979F167-5198-41D0-9338-F9CC64CAD243}"/>
     <cellStyle name="60% — akcent 3 5" xfId="3838" xr:uid="{2372496A-DBB8-4031-B96C-6734CEF58006}"/>
-    <cellStyle name="60% — akcent 4" xfId="32" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — akcent 4 2" xfId="3781" xr:uid="{044C900F-A228-4413-A3E9-EDA5873C2DC1}"/>
     <cellStyle name="60% — akcent 4 3" xfId="3801" xr:uid="{64D61745-DAA8-444A-BBA9-E25C54E97791}"/>
     <cellStyle name="60% — akcent 4 4" xfId="3821" xr:uid="{19FFFB62-F999-452B-B2A4-FDE098CD43E6}"/>
     <cellStyle name="60% — akcent 4 5" xfId="3841" xr:uid="{5C8A9C2D-07DF-40D4-963E-92B6FC16F60B}"/>
-    <cellStyle name="60% — akcent 5" xfId="36" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — akcent 5 2" xfId="3784" xr:uid="{7F3D8FFD-FC21-4EF9-8410-BFA526AE2CB4}"/>
     <cellStyle name="60% — akcent 5 3" xfId="3804" xr:uid="{4C12A0DE-E921-478D-9CF1-63CEB54422B0}"/>
     <cellStyle name="60% — akcent 5 4" xfId="3824" xr:uid="{DBD3DD9C-74C7-490B-8585-0789F1A5D910}"/>
     <cellStyle name="60% — akcent 5 5" xfId="3844" xr:uid="{33EB3BCD-06E0-4DB7-8BE1-318B9D06858B}"/>
-    <cellStyle name="60% — akcent 6" xfId="40" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — akcent 6 2" xfId="3787" xr:uid="{B53C684F-E8ED-488C-B24A-8FCBC245F2B6}"/>
     <cellStyle name="60% — akcent 6 3" xfId="3807" xr:uid="{519B9624-7DC5-421C-8475-5BFB894A8E43}"/>
     <cellStyle name="60% — akcent 6 4" xfId="3827" xr:uid="{CC26F1BF-D381-4013-A282-4AF70E26B236}"/>
     <cellStyle name="60% — akcent 6 5" xfId="3847" xr:uid="{BBE8A053-DBF5-4A57-84DF-4B83C69217EF}"/>
-    <cellStyle name="Akcent 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Dziesiętny 10" xfId="59" xr:uid="{D77896CC-0072-44BF-9E63-F384AF9DD840}"/>
     <cellStyle name="Dziesiętny 10 10" xfId="1715" xr:uid="{64854D7E-7960-4A1F-A927-F6671C76AA1C}"/>
     <cellStyle name="Dziesiętny 10 10 2" xfId="2378" xr:uid="{4215ADFC-A018-495A-ADF0-3A71FAA72C74}"/>
@@ -8077,14 +8082,16 @@
     <cellStyle name="Dziesiętny 9 9 3" xfId="2966" xr:uid="{89275B56-6027-4E26-BCFD-6D6D380D9D65}"/>
     <cellStyle name="Dziesiętny 9 9 4" xfId="3629" xr:uid="{27F6DD8C-ED8B-445A-BF39-310923D04706}"/>
     <cellStyle name="Dziesiętny 9 9 5" xfId="1640" xr:uid="{DC4A20B7-9755-41A6-8C79-ED6C9057FAB6}"/>
-    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 11" xfId="112" xr:uid="{76153FBE-8288-4A08-B754-A35ABAE8AC72}"/>
     <cellStyle name="Normalny 12" xfId="107" xr:uid="{1B42A4CC-FCEE-496D-84CE-1E6E74C6C667}"/>
     <cellStyle name="Normalny 16" xfId="109" xr:uid="{AB98A58F-4B25-4B27-8761-D86B5DBCEB0A}"/>
@@ -8099,12 +8106,10 @@
     <cellStyle name="Normalny 7" xfId="3788" xr:uid="{BC75094A-59B6-4377-9A0F-2FA402464002}"/>
     <cellStyle name="Normalny 8" xfId="3808" xr:uid="{7047017B-CF0D-4656-B4BE-F95E3BF41CE5}"/>
     <cellStyle name="Normalny 9" xfId="3828" xr:uid="{C242354A-574E-4C17-962D-62CA94E9CDFE}"/>
-    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Procentowy 2" xfId="116" xr:uid="{A35D2BF3-62A3-43E4-A2AA-B580A544C94B}"/>
-    <cellStyle name="Suma" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Uwaga 2" xfId="47" xr:uid="{124DEFC4-C80B-4A4A-BF15-A22449184E24}"/>
     <cellStyle name="Uwaga 3" xfId="3769" xr:uid="{C9A3E5CD-7BA4-4EB4-855A-54DD8336E5E0}"/>
     <cellStyle name="Uwaga 4" xfId="3789" xr:uid="{9B3E572E-394D-477C-9690-4DCC48F4025B}"/>
@@ -8735,7 +8740,7 @@
     <cellStyle name="Walutowy 9 7" xfId="3257" xr:uid="{0DD8AA01-4A96-4BEC-9D9F-677F81054444}"/>
     <cellStyle name="Walutowy 9 8" xfId="1268" xr:uid="{C2F2849F-654A-4E4D-B663-08870739A83F}"/>
     <cellStyle name="Walutowy 9 9" xfId="390" xr:uid="{46454A2A-5BBE-431B-9DFD-204BD25147E3}"/>
-    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9013,71 +9018,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>168</v>
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>774586.20299999998</v>
@@ -9115,10 +9123,13 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="N2">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>774586.20299999998</v>
@@ -9156,10 +9167,13 @@
       <c r="M3">
         <v>0</v>
       </c>
+      <c r="N3">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>834689.24</v>
@@ -9197,10 +9211,13 @@
       <c r="M4">
         <v>0</v>
       </c>
+      <c r="N4">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>724729.43799999997</v>
@@ -9238,10 +9255,13 @@
       <c r="M5">
         <v>0</v>
       </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>723918.75</v>
@@ -9279,10 +9299,13 @@
       <c r="M6">
         <v>0</v>
       </c>
+      <c r="N6">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>863924.21900000004</v>
@@ -9320,10 +9343,13 @@
       <c r="M7">
         <v>0</v>
       </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1193200.3910000001</v>
@@ -9361,10 +9387,13 @@
       <c r="M8">
         <v>0</v>
       </c>
+      <c r="N8">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>947398.01599999995</v>
@@ -9402,10 +9431,13 @@
       <c r="M9">
         <v>0</v>
       </c>
+      <c r="N9">
+        <v>0.996</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>860404.98499999999</v>
@@ -9443,10 +9475,13 @@
       <c r="M10">
         <v>0</v>
       </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>808574.56499999994</v>
@@ -9484,10 +9519,13 @@
       <c r="M11">
         <v>0</v>
       </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>796541.93799999997</v>
@@ -9525,10 +9563,13 @@
       <c r="M12">
         <v>0</v>
       </c>
+      <c r="N12">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1009373.63</v>
@@ -9566,10 +9607,13 @@
       <c r="M13">
         <v>0</v>
       </c>
+      <c r="N13">
+        <v>0.997</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>934207.54</v>
@@ -9607,10 +9651,13 @@
       <c r="M14">
         <v>0</v>
       </c>
+      <c r="N14">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>893779.81599999999</v>
@@ -9648,10 +9695,13 @@
       <c r="M15">
         <v>0</v>
       </c>
+      <c r="N15">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>845651.24199999997</v>
@@ -9689,10 +9739,13 @@
       <c r="M16">
         <v>0</v>
       </c>
+      <c r="N16">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>855011.88899999997</v>
@@ -9730,10 +9783,13 @@
       <c r="M17">
         <v>0</v>
       </c>
+      <c r="N17">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>940249.76699999999</v>
@@ -9771,10 +9827,13 @@
       <c r="M18">
         <v>0</v>
       </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>794277.853</v>
@@ -9812,10 +9871,13 @@
       <c r="M19">
         <v>5251.8768326738073</v>
       </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>845863.05500000005</v>
@@ -9853,10 +9915,13 @@
       <c r="M20">
         <v>5084.1995735012088</v>
       </c>
+      <c r="N20">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>858630.06799999997</v>
@@ -9894,10 +9959,13 @@
       <c r="M21">
         <v>5790.2579008763933</v>
       </c>
+      <c r="N21">
+        <v>0.996</v>
+      </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>807993.42599999998</v>
@@ -9935,10 +10003,13 @@
       <c r="M22">
         <v>5682.9715269809803</v>
       </c>
+      <c r="N22">
+        <v>0.997</v>
+      </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>810170.125</v>
@@ -9976,10 +10047,13 @@
       <c r="M23">
         <v>5902.0124808766977</v>
       </c>
+      <c r="N23">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>835878.75100000005</v>
@@ -10017,10 +10091,13 @@
       <c r="M24">
         <v>5763.2887439914002</v>
       </c>
+      <c r="N24">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>863401.47900000005</v>
@@ -10058,10 +10135,13 @@
       <c r="M25">
         <v>5178.5188228932657</v>
       </c>
+      <c r="N25">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>879142.15300000005</v>
@@ -10099,10 +10179,13 @@
       <c r="M26">
         <v>5708.7772569738063</v>
       </c>
+      <c r="N26">
+        <v>0.995</v>
+      </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>845105.24699999997</v>
@@ -10140,10 +10223,13 @@
       <c r="M27">
         <v>5081.0171798886768</v>
       </c>
+      <c r="N27">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>875584.12600000005</v>
@@ -10181,10 +10267,13 @@
       <c r="M28">
         <v>5878.0692031262279</v>
       </c>
+      <c r="N28">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>819433.272</v>
@@ -10222,10 +10311,13 @@
       <c r="M29">
         <v>5391.5582292938507</v>
       </c>
+      <c r="N29">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>802475.549</v>
@@ -10263,10 +10355,13 @@
       <c r="M30">
         <v>5524.7988640697768</v>
       </c>
+      <c r="N30">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>1215738.898</v>
@@ -10304,10 +10399,13 @@
       <c r="M31">
         <v>5486.717831821441</v>
       </c>
+      <c r="N31">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>743687.125</v>
@@ -10345,10 +10443,13 @@
       <c r="M32">
         <v>5847.2515469401023</v>
       </c>
+      <c r="N32">
+        <v>0.997</v>
+      </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>787988.11499999999</v>
@@ -10386,10 +10487,13 @@
       <c r="M33">
         <v>5008.4990492989882</v>
       </c>
+      <c r="N33">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>782407.98800000001</v>
@@ -10427,10 +10531,13 @@
       <c r="M34">
         <v>5916.6889745216686</v>
       </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>979687.94700000004</v>
@@ -10468,10 +10575,13 @@
       <c r="M35">
         <v>5144.9172783996919</v>
       </c>
+      <c r="N35">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>1133443.6540000001</v>
@@ -10509,10 +10619,13 @@
       <c r="M36">
         <v>5867.0879281063944</v>
       </c>
+      <c r="N36">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>632510.71</v>
@@ -10550,10 +10663,13 @@
       <c r="M37">
         <v>5784.5862509542212</v>
       </c>
+      <c r="N37">
+        <v>1.0070000000000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>681135.84100000001</v>
@@ -10591,10 +10707,13 @@
       <c r="M38">
         <v>5815.4802565785039</v>
       </c>
+      <c r="N38">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>598929.12199999997</v>
@@ -10632,10 +10751,13 @@
       <c r="M39">
         <v>5377.2118705559924</v>
       </c>
+      <c r="N39">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>393963.46</v>
@@ -10673,10 +10795,13 @@
       <c r="M40">
         <v>5401.026502288556</v>
       </c>
+      <c r="N40">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>847318.12199999997</v>
@@ -10714,10 +10839,13 @@
       <c r="M41">
         <v>5439.1638755593149</v>
       </c>
+      <c r="N41">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>881607.71900000004</v>
@@ -10755,10 +10883,13 @@
       <c r="M42">
         <v>5743.4863038614058</v>
       </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>992503.72699999996</v>
@@ -10796,10 +10927,13 @@
       <c r="M43">
         <v>5930.0204754872484</v>
       </c>
+      <c r="N43">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>903113.42799999996</v>
@@ -10837,10 +10971,13 @@
       <c r="M44">
         <v>5342.2922719161006</v>
       </c>
+      <c r="N44">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>811476.61199999996</v>
@@ -10878,10 +11015,13 @@
       <c r="M45">
         <v>5723.0482155141653</v>
       </c>
+      <c r="N45">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>803292.86100000003</v>
@@ -10919,10 +11059,13 @@
       <c r="M46">
         <v>5434.9302311699084</v>
       </c>
+      <c r="N46">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>795514.20600000001</v>
@@ -10960,10 +11103,13 @@
       <c r="M47">
         <v>5525.2332762557944</v>
       </c>
+      <c r="N47">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>722897.73400000005</v>
@@ -11001,10 +11147,13 @@
       <c r="M48">
         <v>5431.8005039300679</v>
       </c>
+      <c r="N48">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>813787.86199999996</v>
@@ -11042,10 +11191,13 @@
       <c r="M49">
         <v>5438.3741114236464</v>
       </c>
+      <c r="N49">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>1047837.607</v>
@@ -11083,10 +11235,13 @@
       <c r="M50">
         <v>5503.4513406962269</v>
       </c>
+      <c r="N50">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>575504.98</v>
@@ -11124,10 +11279,13 @@
       <c r="M51">
         <v>5235.130488862862</v>
       </c>
+      <c r="N51">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>708882.42700000003</v>
@@ -11165,10 +11323,13 @@
       <c r="M52">
         <v>5061.7414044091529</v>
       </c>
+      <c r="N52">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>704990.96900000004</v>
@@ -11206,10 +11367,13 @@
       <c r="M53">
         <v>5524.3502223352425</v>
       </c>
+      <c r="N53">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>763997.66799999995</v>
@@ -11247,10 +11411,13 @@
       <c r="M54">
         <v>5388.4887915529353</v>
       </c>
+      <c r="N54">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>605475.18400000001</v>
@@ -11288,10 +11455,13 @@
       <c r="M55">
         <v>5534.8521107243487</v>
       </c>
+      <c r="N55">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>721248.22100000002</v>
@@ -11329,10 +11499,13 @@
       <c r="M56">
         <v>5241.0245050144267</v>
       </c>
+      <c r="N56">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>653400.929</v>
@@ -11370,10 +11543,13 @@
       <c r="M57">
         <v>5060.9781923196897</v>
       </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>758805.35499999998</v>
@@ -11411,10 +11587,13 @@
       <c r="M58">
         <v>5223.8277674749042</v>
       </c>
+      <c r="N58">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>754077.29700000002</v>
@@ -11452,10 +11631,13 @@
       <c r="M59">
         <v>5211.8849342514668</v>
       </c>
+      <c r="N59">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>1004813.656</v>
@@ -11493,10 +11675,13 @@
       <c r="M60">
         <v>5926.0072293609383</v>
       </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>904803.54399999999</v>
@@ -11534,10 +11719,13 @@
       <c r="M61">
         <v>5183.608984872064</v>
       </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>697988.66399999999</v>
@@ -11575,10 +11763,13 @@
       <c r="M62">
         <v>5297.1272662875144</v>
       </c>
+      <c r="N62">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>685316.58400000003</v>
@@ -11616,10 +11807,13 @@
       <c r="M63">
         <v>5226.5582996933927</v>
       </c>
+      <c r="N63">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>719930.772</v>
@@ -11657,10 +11851,13 @@
       <c r="M64">
         <v>5362.1854648833214</v>
       </c>
+      <c r="N64">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>944932.66599999997</v>
@@ -11698,10 +11895,13 @@
       <c r="M65">
         <v>5210.592666229958</v>
       </c>
+      <c r="N65">
+        <v>1.0109999999999999</v>
+      </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>816474.91700000002</v>
@@ -11739,10 +11939,13 @@
       <c r="M66">
         <v>5488.8921726019125</v>
       </c>
+      <c r="N66">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>821493.57200000004</v>
@@ -11780,10 +11983,13 @@
       <c r="M67">
         <v>5279.8491760280094</v>
       </c>
+      <c r="N67">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>1053272.2439999999</v>
@@ -11821,10 +12027,13 @@
       <c r="M68">
         <v>5506.6393299450792</v>
       </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>995715.71200000006</v>
@@ -11862,10 +12071,13 @@
       <c r="M69">
         <v>5813.4200104233869</v>
       </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>842991.14599999995</v>
@@ -11903,10 +12115,13 @@
       <c r="M70">
         <v>5052.1290240201597</v>
       </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>801630.61100000003</v>
@@ -11944,10 +12159,13 @@
       <c r="M71">
         <v>5194.3397050995682</v>
       </c>
+      <c r="N71">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>796324.75</v>
@@ -11985,10 +12203,13 @@
       <c r="M72">
         <v>5761.8367933263726</v>
       </c>
+      <c r="N72">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>790149.12100000004</v>
@@ -12026,10 +12247,13 @@
       <c r="M73">
         <v>5894.7910663804623</v>
       </c>
+      <c r="N73">
+        <v>1.008</v>
+      </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>898145.549</v>
@@ -12067,10 +12291,13 @@
       <c r="M74">
         <v>5924.4321698202921</v>
       </c>
+      <c r="N74">
+        <v>1.0090000000000001</v>
+      </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>878263.91299999994</v>
@@ -12108,10 +12335,13 @@
       <c r="M75">
         <v>5753.2481737286707</v>
       </c>
+      <c r="N75">
+        <v>1.0070000000000001</v>
+      </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>995374.05900000001</v>
@@ -12149,10 +12379,13 @@
       <c r="M76">
         <v>5886.4334803819911</v>
       </c>
+      <c r="N76">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>991773.93799999997</v>
@@ -12190,10 +12423,13 @@
       <c r="M77">
         <v>5055.0964896167106</v>
       </c>
+      <c r="N77">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>939860.25</v>
@@ -12231,10 +12467,13 @@
       <c r="M78">
         <v>5534.4399563576744</v>
       </c>
+      <c r="N78">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>945832.77099999995</v>
@@ -12272,10 +12511,13 @@
       <c r="M79">
         <v>5842.207929773158</v>
       </c>
+      <c r="N79">
+        <v>1.006</v>
+      </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>1346839.6159999999</v>
@@ -12313,10 +12555,13 @@
       <c r="M80">
         <v>5478.9134370785459</v>
       </c>
+      <c r="N80">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>962553.80900000001</v>
@@ -12354,10 +12599,13 @@
       <c r="M81">
         <v>5604.7236294357217</v>
       </c>
+      <c r="N81">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>988172.13800000004</v>
@@ -12395,10 +12643,13 @@
       <c r="M82">
         <v>5316.6366457766208</v>
       </c>
+      <c r="N82">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>1055084.6780000001</v>
@@ -12436,10 +12687,13 @@
       <c r="M83">
         <v>5251.085130018213</v>
       </c>
+      <c r="N83">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>1024893.938</v>
@@ -12477,10 +12731,13 @@
       <c r="M84">
         <v>5784.9857481768377</v>
       </c>
+      <c r="N84">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>980889.15599999996</v>
@@ -12518,10 +12775,13 @@
       <c r="M85">
         <v>5951.819951256387</v>
       </c>
+      <c r="N85">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>1043486.121</v>
@@ -12559,10 +12819,13 @@
       <c r="M86">
         <v>5917.2060298011393</v>
       </c>
+      <c r="N86">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>1210135.094</v>
@@ -12600,10 +12863,13 @@
       <c r="M87">
         <v>5458.9304814400921</v>
       </c>
+      <c r="N87">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>1673347.8759999999</v>
@@ -12641,10 +12907,13 @@
       <c r="M88">
         <v>5578.0034230460542</v>
       </c>
+      <c r="N88">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>808104.78200000001</v>
@@ -12682,10 +12951,13 @@
       <c r="M89">
         <v>5249.5590588197911</v>
       </c>
+      <c r="N89">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>865944.61399999994</v>
@@ -12723,10 +12995,13 @@
       <c r="M90">
         <v>5005.960004441311</v>
       </c>
+      <c r="N90">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>939573.14300000004</v>
@@ -12764,10 +13039,13 @@
       <c r="M91">
         <v>5808.9097105294786</v>
       </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>990864.37199999997</v>
@@ -12805,10 +13083,13 @@
       <c r="M92">
         <v>5350.2253912022097</v>
       </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>1362615.139</v>
@@ -12846,10 +13127,13 @@
       <c r="M93">
         <v>5297.0123286974485</v>
       </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>984670.60199999996</v>
@@ -12887,10 +13171,13 @@
       <c r="M94">
         <v>5678.1947053379263</v>
       </c>
+      <c r="N94">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>1093273.149</v>
@@ -12928,10 +13215,13 @@
       <c r="M95">
         <v>5755.420454967345</v>
       </c>
+      <c r="N95">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>1412581.6129999999</v>
@@ -12969,10 +13259,13 @@
       <c r="M96">
         <v>5556.7763446583722</v>
       </c>
+      <c r="N96">
+        <v>1.008</v>
+      </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>1004521.591</v>
@@ -13010,10 +13303,13 @@
       <c r="M97">
         <v>5399.2447431312858</v>
       </c>
+      <c r="N97">
+        <v>1.0090000000000001</v>
+      </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>1318824.1429999999</v>
@@ -13051,10 +13347,13 @@
       <c r="M98">
         <v>5254.2885344672268</v>
       </c>
+      <c r="N98">
+        <v>1.0070000000000001</v>
+      </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B99">
         <v>986283.15700000001</v>
@@ -13092,10 +13391,13 @@
       <c r="M99">
         <v>5980.4066940838484</v>
       </c>
+      <c r="N99">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>865764.67799999996</v>
@@ -13133,10 +13435,13 @@
       <c r="M100">
         <v>5709.851390228032</v>
       </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>794426.80900000001</v>
@@ -13174,10 +13479,13 @@
       <c r="M101">
         <v>5632.94305016625</v>
       </c>
+      <c r="N101">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>851397.01100000006</v>
@@ -13215,10 +13523,13 @@
       <c r="M102">
         <v>5645.8724053365868</v>
       </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>1153271.726</v>
@@ -13256,10 +13567,13 @@
       <c r="M103">
         <v>5517.0036184177152</v>
       </c>
+      <c r="N103">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>1071352.9350000001</v>
@@ -13297,10 +13611,13 @@
       <c r="M104">
         <v>5648.5211437193993</v>
       </c>
+      <c r="N104">
+        <v>0.996</v>
+      </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B105">
         <v>1260266.2749999999</v>
@@ -13338,10 +13655,13 @@
       <c r="M105">
         <v>5260.9880175063226</v>
       </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>931627.73100000003</v>
@@ -13379,10 +13699,13 @@
       <c r="M106">
         <v>5117.9945373312903</v>
       </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>963651.40700000001</v>
@@ -13420,10 +13743,13 @@
       <c r="M107">
         <v>5659.7446344145301</v>
       </c>
+      <c r="N107">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>1092018.841</v>
@@ -13461,10 +13787,13 @@
       <c r="M108">
         <v>5831.4245753116929</v>
       </c>
+      <c r="N108">
+        <v>0.997</v>
+      </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B109">
         <v>1289683.7169999999</v>
@@ -13502,10 +13831,13 @@
       <c r="M109">
         <v>5140.2259184198929</v>
       </c>
+      <c r="N109">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B110">
         <v>966975.67599999998</v>
@@ -13543,10 +13875,13 @@
       <c r="M110">
         <v>5474.6127809942509</v>
       </c>
+      <c r="N110">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B111">
         <v>975533.56099999999</v>
@@ -13584,10 +13919,13 @@
       <c r="M111">
         <v>5542.6473307685101</v>
       </c>
+      <c r="N111">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B112">
         <v>1316757.8759999999</v>
@@ -13625,10 +13963,13 @@
       <c r="M112">
         <v>5402.7863478651034</v>
       </c>
+      <c r="N112">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B113">
         <v>961098.75199999998</v>
@@ -13666,10 +14007,13 @@
       <c r="M113">
         <v>5216.0423206384921</v>
       </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>903889.07299999997</v>
@@ -13707,10 +14051,13 @@
       <c r="M114">
         <v>5427.0042703713016</v>
       </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>1034278.853</v>
@@ -13748,10 +14095,13 @@
       <c r="M115">
         <v>5078.8659155026717</v>
       </c>
+      <c r="N115">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>972814.70799999998</v>
@@ -13789,10 +14139,13 @@
       <c r="M116">
         <v>5193.9763078090191</v>
       </c>
+      <c r="N116">
+        <v>0.996</v>
+      </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B117">
         <v>1039474.54</v>
@@ -13830,10 +14183,13 @@
       <c r="M117">
         <v>5916.8104107330983</v>
       </c>
+      <c r="N117">
+        <v>0.997</v>
+      </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B118">
         <v>970320.005</v>
@@ -13871,10 +14227,13 @@
       <c r="M118">
         <v>5711.7018440328366</v>
       </c>
+      <c r="N118">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B119">
         <v>1070963.986</v>
@@ -13912,10 +14271,13 @@
       <c r="M119">
         <v>5903.3402706474826</v>
       </c>
+      <c r="N119">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B120">
         <v>1058975.0719999999</v>
@@ -13953,10 +14315,13 @@
       <c r="M120">
         <v>5283.4789489010327</v>
       </c>
+      <c r="N120">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>1745585.1640000001</v>
@@ -13994,10 +14359,13 @@
       <c r="M121">
         <v>5332.8414978583824</v>
       </c>
+      <c r="N121">
+        <v>0.995</v>
+      </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B122">
         <v>1107438.804</v>
@@ -14035,10 +14403,13 @@
       <c r="M122">
         <v>5482.6599975526278</v>
       </c>
+      <c r="N122">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B123">
         <v>1185824.8770000001</v>
@@ -14076,10 +14447,13 @@
       <c r="M123">
         <v>5134.5767433704368</v>
       </c>
+      <c r="N123">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B124">
         <v>1435445.7590000001</v>
@@ -14117,10 +14491,13 @@
       <c r="M124">
         <v>5320.1772840217236</v>
       </c>
+      <c r="N124">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B125">
         <v>1063306.2579999999</v>
@@ -14158,10 +14535,13 @@
       <c r="M125">
         <v>5579.7831786544357</v>
       </c>
+      <c r="N125">
+        <v>1.0070000000000001</v>
+      </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B126">
         <v>1849446.679</v>
@@ -14199,10 +14579,13 @@
       <c r="M126">
         <v>5499.6070391281301</v>
       </c>
+      <c r="N126">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B127">
         <v>1040447.307</v>
@@ -14240,10 +14623,13 @@
       <c r="M127">
         <v>5840.3434026966461</v>
       </c>
+      <c r="N127">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B128">
         <v>1026045.203</v>
@@ -14281,10 +14667,13 @@
       <c r="M128">
         <v>5429.1595490708623</v>
       </c>
+      <c r="N128">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:14">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B129">
         <v>1025541.71</v>
@@ -14322,10 +14711,13 @@
       <c r="M129">
         <v>5718.9174506148438</v>
       </c>
+      <c r="N129">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:14">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B130">
         <v>1485840.496</v>
@@ -14363,10 +14755,13 @@
       <c r="M130">
         <v>5748.257340715355</v>
       </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:14">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B131">
         <v>1026105.61</v>
@@ -14404,10 +14799,13 @@
       <c r="M131">
         <v>5544.3780143425993</v>
       </c>
+      <c r="N131">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:14">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>1142122.6969999999</v>
@@ -14445,10 +14843,13 @@
       <c r="M132">
         <v>5652.0012220241751</v>
       </c>
+      <c r="N132">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:14">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B133">
         <v>1159767.5009999999</v>
@@ -14486,10 +14887,13 @@
       <c r="M133">
         <v>5837.8875657402396</v>
       </c>
+      <c r="N133">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:14">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B134">
         <v>1203730.3640000001</v>
@@ -14527,10 +14931,13 @@
       <c r="M134">
         <v>5465.8254005560357</v>
       </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:14">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B135">
         <v>1588860.871</v>
@@ -14568,10 +14975,13 @@
       <c r="M135">
         <v>5465.0783774057081</v>
       </c>
+      <c r="N135">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:14">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B136">
         <v>1043447.46</v>
@@ -14609,10 +15019,13 @@
       <c r="M136">
         <v>5170.1647264848007</v>
       </c>
+      <c r="N136">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:14">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B137">
         <v>982817.005</v>
@@ -14650,10 +15063,13 @@
       <c r="M137">
         <v>5032.9783862484719</v>
       </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:14">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B138">
         <v>1196564.5589999999</v>
@@ -14691,10 +15107,13 @@
       <c r="M138">
         <v>5572.4122196330482</v>
       </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:14">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B139">
         <v>1194841.311</v>
@@ -14732,10 +15151,13 @@
       <c r="M139">
         <v>5613.6032094963548</v>
       </c>
+      <c r="N139">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:14">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B140">
         <v>1359477.2050000001</v>
@@ -14773,10 +15195,13 @@
       <c r="M140">
         <v>5434.2901080819111</v>
       </c>
+      <c r="N140">
+        <v>1.004</v>
+      </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:14">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B141">
         <v>874065.6</v>
@@ -14814,10 +15239,13 @@
       <c r="M141">
         <v>5080.5505270893136</v>
       </c>
+      <c r="N141">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:14">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B142">
         <v>1119760.6880000001</v>
@@ -14855,10 +15283,13 @@
       <c r="M142">
         <v>5470.4432120795573</v>
       </c>
+      <c r="N142">
+        <v>1.0109999999999999</v>
+      </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:14">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B143">
         <v>1040357.867</v>
@@ -14896,10 +15327,13 @@
       <c r="M143">
         <v>5446.8988107182377</v>
       </c>
+      <c r="N143">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:14">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B144">
         <v>1074921.5959999999</v>
@@ -14937,10 +15371,13 @@
       <c r="M144">
         <v>5690.1966986116495</v>
       </c>
+      <c r="N144">
+        <v>1.0029999999999999</v>
+      </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:14">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B145">
         <v>1081437.6540000001</v>
@@ -14978,10 +15415,13 @@
       <c r="M145">
         <v>5044.3797263154975</v>
       </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:14">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B146">
         <v>1004656.902</v>
@@ -15019,10 +15459,13 @@
       <c r="M146">
         <v>5843.7759572554587</v>
       </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:14">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B147">
         <v>1043694.105</v>
@@ -15060,10 +15503,13 @@
       <c r="M147">
         <v>5587.1722988928204</v>
       </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:14">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B148">
         <v>904742.39099999995</v>
@@ -15101,10 +15547,13 @@
       <c r="M148">
         <v>5876.0262091574878</v>
       </c>
+      <c r="N148">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:14">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B149">
         <v>1211610.9790000001</v>
@@ -15142,10 +15591,13 @@
       <c r="M149">
         <v>5517.5533869007659</v>
       </c>
+      <c r="N149">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:14">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B150">
         <v>1084769.4240000001</v>
@@ -15183,10 +15635,13 @@
       <c r="M150">
         <v>5671.7064165573911</v>
       </c>
+      <c r="N150">
+        <v>1.008</v>
+      </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:14">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B151">
         <v>1092400.733</v>
@@ -15224,10 +15679,13 @@
       <c r="M151">
         <v>5827.4107640274269</v>
       </c>
+      <c r="N151">
+        <v>1.0090000000000001</v>
+      </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:14">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B152">
         <v>1563134.443</v>
@@ -15265,10 +15723,13 @@
       <c r="M152">
         <v>5789.6147117190394</v>
       </c>
+      <c r="N152">
+        <v>1.0070000000000001</v>
+      </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:14">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B153">
         <v>1479714.91</v>
@@ -15306,10 +15767,13 @@
       <c r="M153">
         <v>5506.727526463811</v>
       </c>
+      <c r="N153">
+        <v>1.002</v>
+      </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:14">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B154">
         <v>1505644.6429999999</v>
@@ -15347,10 +15811,13 @@
       <c r="M154">
         <v>5479.7100390333817</v>
       </c>
+      <c r="N154">
+        <v>0.99900000000000011</v>
+      </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:14">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B155">
         <v>1590768.1259999999</v>
@@ -15388,10 +15855,13 @@
       <c r="M155">
         <v>5975.0959026591891</v>
       </c>
+      <c r="N155">
+        <v>0.998</v>
+      </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:14">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B156">
         <v>1593739.3910000001</v>
@@ -15429,10 +15899,13 @@
       <c r="M156">
         <v>5726.7393040181751</v>
       </c>
+      <c r="N156">
+        <v>1.006</v>
+      </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:14">
       <c r="A157" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B157">
         <v>945836.49199999997</v>
@@ -15469,6 +15942,9 @@
       </c>
       <c r="M157">
         <v>5935.3915385342862</v>
+      </c>
+      <c r="N157">
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
